--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataBrokenIMGList.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/timeOutGames/1CraftbetDataBrokenIMGList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>3697380   Copa Rio   Soccer   2022-08-25T17:00:00   After game start tim out hours are :  -6</t>
   </si>
@@ -221,7 +221,7 @@
     <t>3699624   Cancun, Mexico   Tennis   2022-08-25T17:30:00   After game start tim out hours are :  -6</t>
   </si>
   <si>
-    <t>3700199   LDB U22   Basketball   2022-08-25T17:45:00   After game start tim out hours are :  -5</t>
+    <t>3700199   LDB U22   Basketball   2022-08-25T17:45:00   After game start tim out hours are :  -6</t>
   </si>
   <si>
     <t>3697049   ITF-M Lambermont   Tennis   2022-08-25T17:50:00   After game start tim out hours are :  -5</t>
@@ -260,7 +260,7 @@
     <t>3694126   ATP CH Banja Luka   Tennis   2022-08-25T18:30:00   After game start tim out hours are :  -5</t>
   </si>
   <si>
-    <t>3697025   ITF-W Oldenzaal   Tennis   2022-08-25T18:45:00   After game start tim out hours are :  -4</t>
+    <t>3697025   ITF-W Oldenzaal   Tennis   2022-08-25T18:45:00   After game start tim out hours are :  -5</t>
   </si>
   <si>
     <t>3698881   Cancun, Mexico   Tennis   2022-08-25T19:00:00   After game start tim out hours are :  -4</t>
@@ -350,21 +350,15 @@
     <t>3695590   WTA US Open   Tennis   2022-08-25T20:35:00   After game start tim out hours are :  -3</t>
   </si>
   <si>
-    <t>3695455   ATP US Open   Tennis   2022-08-25T20:45:00   After game start tim out hours are :  -2</t>
+    <t>3695455   ATP US Open   Tennis   2022-08-25T20:45:00   After game start tim out hours are :  -3</t>
   </si>
   <si>
     <t>3695526   WTA US Open   Tennis   2022-08-25T20:50:00   After game start tim out hours are :  -2</t>
   </si>
   <si>
-    <t>3698888   WTA Granby   Tennis   2022-08-25T20:50:00   After game start tim out hours are :  -2</t>
-  </si>
-  <si>
     <t>3695453   ATP US Open   Tennis   2022-08-25T21:25:00   After game start tim out hours are :  -2</t>
   </si>
   <si>
-    <t>3695525   WTA US Open   Tennis   2022-08-25T21:30:00   After game start tim out hours are :  -2</t>
-  </si>
-  <si>
     <t>3695587   WTA US Open   Tennis   2022-08-25T21:30:00   After game start tim out hours are :  -2</t>
   </si>
   <si>
@@ -440,7 +434,7 @@
     <t>3696308   WTT Feeder Olomouc   Table Tennis   2022-08-25T18:30:00   After game start tim out hours are :  -5</t>
   </si>
   <si>
-    <t>3698517   Setka Cup   Table Tennis   2022-08-25T18:45:00   After game start tim out hours are :  -4</t>
+    <t>3698517   Setka Cup   Table Tennis   2022-08-25T18:45:00   After game start tim out hours are :  -5</t>
   </si>
   <si>
     <t>3698148   Setka Cup   Table Tennis   2022-08-25T18:55:00   After game start tim out hours are :  -4</t>
@@ -461,10 +455,10 @@
     <t>3699565   Club Friendlies. Women   Handball   2022-08-25T18:00:00   After game start tim out hours are :  -5</t>
   </si>
   <si>
-    <t>3697110   Dota 2 - ESL One Malaysia   E-sports   2022-08-25T10:45:00   After game start tim out hours are :  -12</t>
-  </si>
-  <si>
-    <t>3697109   Dota 2 - ESL One Malaysia   E-sports   2022-08-25T10:45:00   After game start tim out hours are :  -12</t>
+    <t>3697110   Dota 2 - ESL One Malaysia   E-sports   2022-08-25T10:45:00   After game start tim out hours are :  -13</t>
+  </si>
+  <si>
+    <t>3697109   Dota 2 - ESL One Malaysia   E-sports   2022-08-25T10:45:00   After game start tim out hours are :  -13</t>
   </si>
   <si>
     <t>3693262   LoL Pro League   E-sports   2022-08-25T13:00:00   After game start tim out hours are :  -10</t>
@@ -485,7 +479,7 @@
     <t>3698479   LoL - European Masters   E-sports   2022-08-25T19:00:00   After game start tim out hours are :  -4</t>
   </si>
   <si>
-    <t>3698485   LoL - European Masters   E-sports   2022-08-26T00:00:00   1 / 0 / 0</t>
+    <t>3698480   LoL - European Masters   E-sports   2022-08-26T00:00:00   1 / 0 / 0</t>
   </si>
   <si>
     <t>3696935   World Championships   Badminton   2022-08-25T08:50:00   After game start tim out hours are :  -14</t>
@@ -548,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A164"/>
+  <dimension ref="A1:A162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1367,16 +1361,6 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
